--- a/po_analysis_by_asin/B0C5XYYHPL_po_data.xlsx
+++ b/po_analysis_by_asin/B0C5XYYHPL_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,17 +452,185 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45362</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45369</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B24" t="n">
         <v>70</v>
       </c>
     </row>
@@ -477,7 +645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,9 +667,57 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45352</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45107.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45138.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45169.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45199.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45230.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B8" t="n">
         <v>130</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0C5XYYHPL_po_data.xlsx
+++ b/po_analysis_by_asin/B0C5XYYHPL_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -618,22 +618,6 @@
         <v>130</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>45368.99999999999</v>
-      </c>
-      <c r="B23" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>45375.99999999999</v>
-      </c>
-      <c r="B24" t="n">
-        <v>70</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -645,7 +629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -713,14 +697,6 @@
         <v>360</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45382.99999999999</v>
-      </c>
-      <c r="B8" t="n">
-        <v>130</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/po_analysis_by_asin/B0C5XYYHPL_po_data.xlsx
+++ b/po_analysis_by_asin/B0C5XYYHPL_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -645,7 +646,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -695,6 +696,453 @@
       </c>
       <c r="B7" t="n">
         <v>360</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-34.22767860221123</v>
+      </c>
+      <c r="D2" t="n">
+        <v>47.08849365216549</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>15</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-23.89304996555421</v>
+      </c>
+      <c r="D3" t="n">
+        <v>55.28537488960884</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>19</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-22.30235624637595</v>
+      </c>
+      <c r="D4" t="n">
+        <v>58.56205235191018</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>22</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-16.83183370124235</v>
+      </c>
+      <c r="D5" t="n">
+        <v>59.93492954460888</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>26</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-14.86227989690288</v>
+      </c>
+      <c r="D6" t="n">
+        <v>64.28700218924138</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>29</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-7.712269507211516</v>
+      </c>
+      <c r="D7" t="n">
+        <v>69.88398683057552</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>33</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-7.26344119988509</v>
+      </c>
+      <c r="D8" t="n">
+        <v>72.27393303701398</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>37</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.743419319508976</v>
+      </c>
+      <c r="D9" t="n">
+        <v>77.0974193462344</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>40</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4720540518973372</v>
+      </c>
+      <c r="D10" t="n">
+        <v>79.97930168200349</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>44</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6.899355544601818</v>
+      </c>
+      <c r="D11" t="n">
+        <v>85.17925151207253</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>48</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7.893896243768209</v>
+      </c>
+      <c r="D12" t="n">
+        <v>85.07273180160928</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>51</v>
+      </c>
+      <c r="C13" t="n">
+        <v>9.481858131917637</v>
+      </c>
+      <c r="D13" t="n">
+        <v>87.23139972436978</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>55</v>
+      </c>
+      <c r="C14" t="n">
+        <v>15.62846885897153</v>
+      </c>
+      <c r="D14" t="n">
+        <v>93.33278973017164</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>58</v>
+      </c>
+      <c r="C15" t="n">
+        <v>20.41178236395189</v>
+      </c>
+      <c r="D15" t="n">
+        <v>95.84064683980726</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>62</v>
+      </c>
+      <c r="C16" t="n">
+        <v>23.15985434892488</v>
+      </c>
+      <c r="D16" t="n">
+        <v>99.44486035976324</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>66</v>
+      </c>
+      <c r="C17" t="n">
+        <v>24.89626785971113</v>
+      </c>
+      <c r="D17" t="n">
+        <v>101.9596047614701</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>69</v>
+      </c>
+      <c r="C18" t="n">
+        <v>30.55316037437408</v>
+      </c>
+      <c r="D18" t="n">
+        <v>105.025973578972</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>73</v>
+      </c>
+      <c r="C19" t="n">
+        <v>30.96778603359694</v>
+      </c>
+      <c r="D19" t="n">
+        <v>109.4300852833541</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>77</v>
+      </c>
+      <c r="C20" t="n">
+        <v>38.34288671723811</v>
+      </c>
+      <c r="D20" t="n">
+        <v>119.016591444511</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>80</v>
+      </c>
+      <c r="C21" t="n">
+        <v>42.20055688078967</v>
+      </c>
+      <c r="D21" t="n">
+        <v>118.6771951963084</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>84</v>
+      </c>
+      <c r="C22" t="n">
+        <v>45.65787094247745</v>
+      </c>
+      <c r="D22" t="n">
+        <v>121.094613656624</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>87</v>
+      </c>
+      <c r="C23" t="n">
+        <v>46.06805521981763</v>
+      </c>
+      <c r="D23" t="n">
+        <v>125.5953680559394</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>91</v>
+      </c>
+      <c r="C24" t="n">
+        <v>52.54185587669614</v>
+      </c>
+      <c r="D24" t="n">
+        <v>132.9462316431638</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>95</v>
+      </c>
+      <c r="C25" t="n">
+        <v>53.86475167439077</v>
+      </c>
+      <c r="D25" t="n">
+        <v>132.3180414015164</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>98</v>
+      </c>
+      <c r="C26" t="n">
+        <v>63.51970583141605</v>
+      </c>
+      <c r="D26" t="n">
+        <v>137.7131000670386</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>102</v>
+      </c>
+      <c r="C27" t="n">
+        <v>61.55021313375509</v>
+      </c>
+      <c r="D27" t="n">
+        <v>141.949762721796</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>105</v>
+      </c>
+      <c r="C28" t="n">
+        <v>67.38356560663279</v>
+      </c>
+      <c r="D28" t="n">
+        <v>145.7563167954695</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>109</v>
+      </c>
+      <c r="C29" t="n">
+        <v>68.31545999753018</v>
+      </c>
+      <c r="D29" t="n">
+        <v>145.6095573764974</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45284.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>113</v>
+      </c>
+      <c r="C30" t="n">
+        <v>74.82509948334922</v>
+      </c>
+      <c r="D30" t="n">
+        <v>150.7265624985274</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0C5XYYHPL_po_data.xlsx
+++ b/po_analysis_by_asin/B0C5XYYHPL_po_data.xlsx
@@ -709,7 +709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -728,16 +728,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -746,12 +736,6 @@
       <c r="B2" t="n">
         <v>8</v>
       </c>
-      <c r="C2" t="n">
-        <v>-34.22767860221123</v>
-      </c>
-      <c r="D2" t="n">
-        <v>47.08849365216549</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -760,12 +744,6 @@
       <c r="B3" t="n">
         <v>15</v>
       </c>
-      <c r="C3" t="n">
-        <v>-23.89304996555421</v>
-      </c>
-      <c r="D3" t="n">
-        <v>55.28537488960884</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -774,12 +752,6 @@
       <c r="B4" t="n">
         <v>19</v>
       </c>
-      <c r="C4" t="n">
-        <v>-22.30235624637595</v>
-      </c>
-      <c r="D4" t="n">
-        <v>58.56205235191018</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -788,12 +760,6 @@
       <c r="B5" t="n">
         <v>22</v>
       </c>
-      <c r="C5" t="n">
-        <v>-16.83183370124235</v>
-      </c>
-      <c r="D5" t="n">
-        <v>59.93492954460888</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -802,12 +768,6 @@
       <c r="B6" t="n">
         <v>26</v>
       </c>
-      <c r="C6" t="n">
-        <v>-14.86227989690288</v>
-      </c>
-      <c r="D6" t="n">
-        <v>64.28700218924138</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -816,12 +776,6 @@
       <c r="B7" t="n">
         <v>29</v>
       </c>
-      <c r="C7" t="n">
-        <v>-7.712269507211516</v>
-      </c>
-      <c r="D7" t="n">
-        <v>69.88398683057552</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -830,12 +784,6 @@
       <c r="B8" t="n">
         <v>33</v>
       </c>
-      <c r="C8" t="n">
-        <v>-7.26344119988509</v>
-      </c>
-      <c r="D8" t="n">
-        <v>72.27393303701398</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -844,12 +792,6 @@
       <c r="B9" t="n">
         <v>37</v>
       </c>
-      <c r="C9" t="n">
-        <v>-0.743419319508976</v>
-      </c>
-      <c r="D9" t="n">
-        <v>77.0974193462344</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -858,12 +800,6 @@
       <c r="B10" t="n">
         <v>40</v>
       </c>
-      <c r="C10" t="n">
-        <v>0.4720540518973372</v>
-      </c>
-      <c r="D10" t="n">
-        <v>79.97930168200349</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -872,12 +808,6 @@
       <c r="B11" t="n">
         <v>44</v>
       </c>
-      <c r="C11" t="n">
-        <v>6.899355544601818</v>
-      </c>
-      <c r="D11" t="n">
-        <v>85.17925151207253</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -886,12 +816,6 @@
       <c r="B12" t="n">
         <v>48</v>
       </c>
-      <c r="C12" t="n">
-        <v>7.893896243768209</v>
-      </c>
-      <c r="D12" t="n">
-        <v>85.07273180160928</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -900,12 +824,6 @@
       <c r="B13" t="n">
         <v>51</v>
       </c>
-      <c r="C13" t="n">
-        <v>9.481858131917637</v>
-      </c>
-      <c r="D13" t="n">
-        <v>87.23139972436978</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -914,12 +832,6 @@
       <c r="B14" t="n">
         <v>55</v>
       </c>
-      <c r="C14" t="n">
-        <v>15.62846885897153</v>
-      </c>
-      <c r="D14" t="n">
-        <v>93.33278973017164</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -928,12 +840,6 @@
       <c r="B15" t="n">
         <v>58</v>
       </c>
-      <c r="C15" t="n">
-        <v>20.41178236395189</v>
-      </c>
-      <c r="D15" t="n">
-        <v>95.84064683980726</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -942,12 +848,6 @@
       <c r="B16" t="n">
         <v>62</v>
       </c>
-      <c r="C16" t="n">
-        <v>23.15985434892488</v>
-      </c>
-      <c r="D16" t="n">
-        <v>99.44486035976324</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -956,12 +856,6 @@
       <c r="B17" t="n">
         <v>66</v>
       </c>
-      <c r="C17" t="n">
-        <v>24.89626785971113</v>
-      </c>
-      <c r="D17" t="n">
-        <v>101.9596047614701</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -970,12 +864,6 @@
       <c r="B18" t="n">
         <v>69</v>
       </c>
-      <c r="C18" t="n">
-        <v>30.55316037437408</v>
-      </c>
-      <c r="D18" t="n">
-        <v>105.025973578972</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -984,12 +872,6 @@
       <c r="B19" t="n">
         <v>73</v>
       </c>
-      <c r="C19" t="n">
-        <v>30.96778603359694</v>
-      </c>
-      <c r="D19" t="n">
-        <v>109.4300852833541</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -998,12 +880,6 @@
       <c r="B20" t="n">
         <v>77</v>
       </c>
-      <c r="C20" t="n">
-        <v>38.34288671723811</v>
-      </c>
-      <c r="D20" t="n">
-        <v>119.016591444511</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1012,12 +888,6 @@
       <c r="B21" t="n">
         <v>80</v>
       </c>
-      <c r="C21" t="n">
-        <v>42.20055688078967</v>
-      </c>
-      <c r="D21" t="n">
-        <v>118.6771951963084</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1026,12 +896,6 @@
       <c r="B22" t="n">
         <v>84</v>
       </c>
-      <c r="C22" t="n">
-        <v>45.65787094247745</v>
-      </c>
-      <c r="D22" t="n">
-        <v>121.094613656624</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1040,12 +904,6 @@
       <c r="B23" t="n">
         <v>87</v>
       </c>
-      <c r="C23" t="n">
-        <v>46.06805521981763</v>
-      </c>
-      <c r="D23" t="n">
-        <v>125.5953680559394</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1054,12 +912,6 @@
       <c r="B24" t="n">
         <v>91</v>
       </c>
-      <c r="C24" t="n">
-        <v>52.54185587669614</v>
-      </c>
-      <c r="D24" t="n">
-        <v>132.9462316431638</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1068,12 +920,6 @@
       <c r="B25" t="n">
         <v>95</v>
       </c>
-      <c r="C25" t="n">
-        <v>53.86475167439077</v>
-      </c>
-      <c r="D25" t="n">
-        <v>132.3180414015164</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1082,12 +928,6 @@
       <c r="B26" t="n">
         <v>98</v>
       </c>
-      <c r="C26" t="n">
-        <v>63.51970583141605</v>
-      </c>
-      <c r="D26" t="n">
-        <v>137.7131000670386</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1096,12 +936,6 @@
       <c r="B27" t="n">
         <v>102</v>
       </c>
-      <c r="C27" t="n">
-        <v>61.55021313375509</v>
-      </c>
-      <c r="D27" t="n">
-        <v>141.949762721796</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1110,12 +944,6 @@
       <c r="B28" t="n">
         <v>105</v>
       </c>
-      <c r="C28" t="n">
-        <v>67.38356560663279</v>
-      </c>
-      <c r="D28" t="n">
-        <v>145.7563167954695</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1124,12 +952,6 @@
       <c r="B29" t="n">
         <v>109</v>
       </c>
-      <c r="C29" t="n">
-        <v>68.31545999753018</v>
-      </c>
-      <c r="D29" t="n">
-        <v>145.6095573764974</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1137,12 +959,6 @@
       </c>
       <c r="B30" t="n">
         <v>113</v>
-      </c>
-      <c r="C30" t="n">
-        <v>74.82509948334922</v>
-      </c>
-      <c r="D30" t="n">
-        <v>150.7265624985274</v>
       </c>
     </row>
   </sheetData>
